--- a/CP046/Default.xlsx
+++ b/CP046/Default.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="64">
   <si>
     <t>e_WIC_ValidaCli</t>
   </si>
@@ -58,7 +58,10 @@
     <t>e_Ambiente</t>
   </si>
   <si>
-    <t>RV Plan Ilimitado Mi Movistar S/65.9 :</t>
+    <t>Auto_Tsoft1</t>
+  </si>
+  <si>
+    <t>2020202010</t>
   </si>
   <si>
     <t>e_TipoSIM</t>
@@ -100,6 +103,9 @@
     <t>e_TipodeAlta</t>
   </si>
   <si>
+    <t>RV Plan Ilimitado Mi Movistar S/65.90:</t>
+  </si>
+  <si>
     <t>e_Tipo_De_DATA_Sim</t>
   </si>
   <si>
@@ -115,18 +121,12 @@
     <t>e_NombrePadre</t>
   </si>
   <si>
-    <t>000002874</t>
-  </si>
-  <si>
     <t>e_RolFamilia</t>
   </si>
   <si>
     <t>Inicio</t>
   </si>
   <si>
-    <t>UAT13</t>
-  </si>
-  <si>
     <t>e_ModeloCelular</t>
   </si>
   <si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t>Fin</t>
+  </si>
+  <si>
+    <t>UAT4</t>
   </si>
   <si>
     <t>e_CR3988</t>
@@ -405,11 +408,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
@@ -427,10 +430,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="FFFFFF"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="283845"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -737,8 +740,8 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:Y6"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="13.5"/>
@@ -749,7 +752,7 @@
     <col min="5" max="5" width="17.42578125" style="6" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" style="6" customWidth="1"/>
     <col min="7" max="7" width="19.85546875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="30.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="51.7109375" style="2" customWidth="1"/>
     <col min="10" max="10" width="14.140625" style="2" customWidth="1"/>
     <col min="11" max="11" width="18.5703125" style="2" customWidth="1"/>
@@ -775,131 +778,131 @@
         <v>0</v>
       </c>
       <c t="s">
-        <v>58</v>
-      </c>
-      <c t="s">
+        <v>59</v>
+      </c>
+      <c t="s">
+        <v>26</v>
+      </c>
+      <c t="s">
+        <v>60</v>
+      </c>
+      <c t="s">
+        <v>24</v>
+      </c>
+      <c t="s">
+        <v>45</v>
+      </c>
+      <c t="s">
+        <v>35</v>
+      </c>
+      <c t="s">
+        <v>46</v>
+      </c>
+      <c t="s">
+        <v>14</v>
+      </c>
+      <c t="s">
+        <v>33</v>
+      </c>
+      <c t="s">
+        <v>15</v>
+      </c>
+      <c t="s">
+        <v>9</v>
+      </c>
+      <c t="s">
+        <v>49</v>
+      </c>
+      <c t="s">
+        <v>53</v>
+      </c>
+      <c t="s">
+        <v>17</v>
+      </c>
+      <c t="s">
+        <v>40</v>
+      </c>
+      <c t="s">
+        <v>28</v>
+      </c>
+      <c t="s">
+        <v>7</v>
+      </c>
+      <c t="s">
+        <v>29</v>
+      </c>
+      <c t="s">
+        <v>10</v>
+      </c>
+      <c t="s">
+        <v>41</v>
+      </c>
+      <c t="s">
+        <v>2</v>
+      </c>
+      <c t="s">
+        <v>3</v>
+      </c>
+      <c t="s">
+        <v>54</v>
+      </c>
+      <c t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row s="2" customFormat="1">
+      <c s="1" t="s">
+        <v>1</v>
+      </c>
+      <c s="1" t="s">
+        <v>1</v>
+      </c>
+      <c s="1" t="s">
+        <v>51</v>
+      </c>
+      <c s="1" t="s">
+        <v>51</v>
+      </c>
+      <c s="4" t="s">
         <v>25</v>
       </c>
-      <c t="s">
-        <v>59</v>
-      </c>
-      <c t="s">
-        <v>23</v>
-      </c>
-      <c t="s">
-        <v>44</v>
-      </c>
-      <c t="s">
-        <v>35</v>
-      </c>
-      <c t="s">
-        <v>45</v>
-      </c>
-      <c t="s">
-        <v>13</v>
-      </c>
-      <c t="s">
-        <v>32</v>
-      </c>
-      <c t="s">
-        <v>14</v>
-      </c>
-      <c t="s">
-        <v>9</v>
-      </c>
-      <c t="s">
-        <v>48</v>
-      </c>
-      <c t="s">
+      <c s="4" t="s">
+        <v>25</v>
+      </c>
+      <c s="4" t="s">
         <v>52</v>
       </c>
-      <c t="s">
+      <c s="1" t="s">
+        <v>27</v>
+      </c>
+      <c s="1" t="s">
+        <v>36</v>
+      </c>
+      <c s="1"/>
+      <c s="1" t="s">
+        <v>61</v>
+      </c>
+      <c s="1" t="s">
+        <v>47</v>
+      </c>
+      <c s="1"/>
+      <c s="1" t="s">
         <v>16</v>
       </c>
-      <c t="s">
-        <v>39</v>
-      </c>
-      <c t="s">
-        <v>26</v>
-      </c>
-      <c t="s">
-        <v>7</v>
-      </c>
-      <c t="s">
-        <v>27</v>
-      </c>
-      <c t="s">
-        <v>10</v>
-      </c>
-      <c t="s">
-        <v>40</v>
-      </c>
-      <c t="s">
-        <v>2</v>
-      </c>
-      <c t="s">
-        <v>3</v>
-      </c>
-      <c t="s">
-        <v>53</v>
-      </c>
-      <c t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row s="2" customFormat="1">
-      <c s="1" t="s">
-        <v>1</v>
-      </c>
-      <c s="1" t="s">
-        <v>1</v>
-      </c>
-      <c s="1" t="s">
-        <v>50</v>
-      </c>
-      <c s="1" t="s">
-        <v>50</v>
+      <c s="1" t="s">
+        <v>18</v>
+      </c>
+      <c s="1" t="s">
+        <v>47</v>
+      </c>
+      <c s="1" t="s">
+        <v>30</v>
       </c>
       <c s="5" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c s="5" t="s">
-        <v>24</v>
-      </c>
-      <c s="5" t="s">
-        <v>51</v>
-      </c>
-      <c s="1" t="s">
-        <v>12</v>
-      </c>
-      <c s="1" t="s">
-        <v>36</v>
-      </c>
-      <c s="1"/>
-      <c s="1" t="s">
-        <v>60</v>
-      </c>
-      <c s="1" t="s">
-        <v>46</v>
-      </c>
-      <c s="1"/>
-      <c s="1" t="s">
-        <v>15</v>
-      </c>
-      <c s="1" t="s">
-        <v>17</v>
-      </c>
-      <c s="1" t="s">
-        <v>46</v>
-      </c>
-      <c s="1" t="s">
-        <v>28</v>
-      </c>
-      <c s="4" t="s">
-        <v>61</v>
-      </c>
-      <c s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c s="1"/>
       <c s="1"/>
@@ -1049,16 +1052,16 @@
   <sheetData>
     <row ht="12.75" customHeight="1" customFormat="1">
       <c t="s">
-        <v>41</v>
-      </c>
-      <c t="s">
-        <v>62</v>
-      </c>
-      <c t="s">
-        <v>29</v>
-      </c>
-      <c t="s">
-        <v>54</v>
+        <v>42</v>
+      </c>
+      <c t="s">
+        <v>63</v>
+      </c>
+      <c t="s">
+        <v>31</v>
+      </c>
+      <c t="s">
+        <v>55</v>
       </c>
     </row>
     <row>
@@ -1098,30 +1101,30 @@
   <sheetData>
     <row ht="12.75" customHeight="1" customFormat="1">
       <c t="s">
-        <v>55</v>
-      </c>
-      <c t="s">
-        <v>30</v>
-      </c>
-      <c t="s">
-        <v>42</v>
-      </c>
-      <c t="s">
-        <v>20</v>
+        <v>56</v>
+      </c>
+      <c t="s">
+        <v>32</v>
+      </c>
+      <c t="s">
+        <v>43</v>
+      </c>
+      <c t="s">
+        <v>21</v>
       </c>
     </row>
     <row>
       <c s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c s="1" t="s">
         <v>37</v>
       </c>
       <c s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1139,14 +1142,14 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.1484375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.12890625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.21484375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.62890625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9.1484375" style="2" customWidth="1"/>
@@ -1154,16 +1157,16 @@
   <sheetData>
     <row ht="12.75" customHeight="1" customFormat="1">
       <c t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c t="s">
         <v>11</v>
       </c>
       <c t="s">
-        <v>21</v>
-      </c>
-      <c t="s">
-        <v>47</v>
+        <v>22</v>
+      </c>
+      <c t="s">
+        <v>48</v>
       </c>
       <c t="s">
         <v>2</v>
@@ -1180,13 +1183,13 @@
         <v>4</v>
       </c>
       <c s="1" t="s">
-        <v>34</v>
-      </c>
-      <c s="1" t="s">
-        <v>18</v>
-      </c>
-      <c s="1" t="s">
-        <v>18</v>
+        <v>39</v>
+      </c>
+      <c s="1" t="s">
+        <v>12</v>
+      </c>
+      <c s="1" t="s">
+        <v>19</v>
       </c>
       <c s="1" t="s">
         <v>4</v>
@@ -1213,34 +1216,34 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="19.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.8828125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6953125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.140625" style="2" customWidth="1"/>
     <col min="4" max="16384" width="9.1484375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row ht="12.75" customHeight="1" customFormat="1">
       <c t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c t="s">
         <v>6</v>
       </c>
       <c t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row>
       <c s="1" t="s">
-        <v>49</v>
-      </c>
-      <c s="4" t="s">
-        <v>31</v>
+        <v>50</v>
+      </c>
+      <c s="5" t="s">
+        <v>13</v>
       </c>
       <c s="3"/>
     </row>
